--- a/Plancheck/plancheck_data/check_protocol/v19/hyperarc.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/hyperarc.xlsx
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,19 +2815,19 @@
       <c r="A9" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>158</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/plancheck_data/check_protocol/v19/hyperarc.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/hyperarc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>Cerveau-GTVs</t>
   </si>
   <si>
-    <t>Chisama+2</t>
-  </si>
-  <si>
     <t>CristallinDt+5</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>NerfOptGche+2</t>
   </si>
   <si>
-    <t>OvelapChisama+2</t>
-  </si>
-  <si>
     <t>OverlapNOD+2</t>
   </si>
   <si>
@@ -500,6 +494,12 @@
   </si>
   <si>
     <t>PTV_AUTRES</t>
+  </si>
+  <si>
+    <t>Chiasma+2</t>
+  </si>
+  <si>
+    <t>OvelapChiasma+2</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,8 +2478,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,14 +2509,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="12" t="s">
@@ -2525,7 +2525,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="s">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="12" t="s">
@@ -2543,7 +2543,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="12" t="s">
@@ -2552,7 +2552,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="12" t="s">
@@ -2561,7 +2561,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="12" t="s">
@@ -2570,42 +2570,42 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="12" t="s">
@@ -2646,7 +2646,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="6">
         <v>400</v>
@@ -2657,14 +2657,14 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="6">
         <v>-400</v>
@@ -2685,7 +2685,7 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +2740,7 @@
         <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2750,7 +2750,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2760,13 +2760,13 @@
         <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2774,7 +2774,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2784,7 +2784,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2794,40 +2794,40 @@
         <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
